--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 12:00:40</t>
+          <t>2025-08-27 12:35:29</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 12:35:29</t>
+          <t>2025-08-27 16:07:13</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 16:07:13</t>
+          <t>2025-08-27 16:53:52</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 16:53:52</t>
+          <t>2025-08-27 17:01:20</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 17:01:20</t>
+          <t>2025-08-27 17:11:14</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 17:11:14</t>
+          <t>2025-08-27 17:58:03</t>
         </is>
       </c>
     </row>

--- a/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
+++ b/Execution Providers Tester/opset_22/NVIDIA - CUDA/report_CUDAExecutionProvider.xlsx
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-08-27 17:58:03</t>
+          <t>2025-08-29 10:49:21</t>
         </is>
       </c>
     </row>
